--- a/MeetPlayPal/Tables.xlsx
+++ b/MeetPlayPal/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prs\Documents\Personal\MyProject\joinpramod\MeetPlayPal\MeetPlayPal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CF64A-B985-4437-BA09-2E18B579BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68265D08-B379-4196-A9B3-86A618313366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2428B6BE-65C6-4FDE-9E10-380153D3726B}"/>
   </bookViews>

--- a/MeetPlayPal/Tables.xlsx
+++ b/MeetPlayPal/Tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prs\Documents\Personal\MyProject\joinpramod\MeetPlayPal\MeetPlayPal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68265D08-B379-4196-A9B3-86A618313366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA25E6-003A-448D-814D-CC64826EE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2428B6BE-65C6-4FDE-9E10-380153D3726B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>User</t>
   </si>
@@ -121,12 +122,6 @@
     <t>ModifiedDate</t>
   </si>
   <si>
-    <t>UserSport</t>
-  </si>
-  <si>
-    <t>IserSportId</t>
-  </si>
-  <si>
     <t>News</t>
   </si>
   <si>
@@ -149,6 +144,33 @@
   </si>
   <si>
     <t>ImageID</t>
+  </si>
+  <si>
+    <t>UserSportId</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>FileId</t>
+  </si>
+  <si>
+    <t>CustomName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>StatusId</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>UserSports</t>
   </si>
 </sst>
 </file>
@@ -190,9 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0D6843-5254-4FC2-81A3-81FE461E580C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,12 +541,13 @@
     <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,16 +573,22 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -584,16 +614,22 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -622,13 +658,19 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -657,10 +699,19 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -685,55 +736,140 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
       <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944381A1-B376-4F25-9DFA-10C86BCC6ECA}">
+  <dimension ref="E4:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MeetPlayPal/Tables.xlsx
+++ b/MeetPlayPal/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prs\Documents\Personal\MyProject\joinpramod\MeetPlayPal\MeetPlayPal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G-Drive\MeetPlayPal\MeetPlayPal\MeetPlayPal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA25E6-003A-448D-814D-CC64826EE48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7841C3-3069-4867-A540-3A9B3A4129B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2428B6BE-65C6-4FDE-9E10-380153D3726B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{2428B6BE-65C6-4FDE-9E10-380153D3726B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>User</t>
   </si>
@@ -171,6 +169,12 @@
   </si>
   <si>
     <t>UserSports</t>
+  </si>
+  <si>
+    <t>Suggestion</t>
+  </si>
+  <si>
+    <t>SuggestionId</t>
   </si>
 </sst>
 </file>
@@ -530,24 +534,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0D6843-5254-4FC2-81A3-81FE461E580C}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="9" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +592,11 @@
       <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -628,8 +636,11 @@
       <c r="M2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -669,8 +680,11 @@
       <c r="M3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -710,8 +724,11 @@
       <c r="M4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -751,8 +768,11 @@
       <c r="M5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -787,7 +807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -813,7 +833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -827,7 +847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -835,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -843,7 +863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
         <v>40</v>
       </c>
@@ -861,13 +881,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
